--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook_sc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook-data-science-artificial-intelligence-startup-campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495861F6-D520-4E71-B0C1-B2F0F9305FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C8AB3-64BA-4881-B2C0-4B5DA9D8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -902,11 +902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M82" sqref="M82"/>
+      <selection pane="bottomRight" activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3549,9 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
+      <c r="Q79" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
@@ -3580,7 +3582,9 @@
         <v>138</v>
       </c>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
+      <c r="Q80" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -3593,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="12"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3611,7 +3615,9 @@
         <v>138</v>
       </c>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
+      <c r="Q81" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -3624,9 +3630,9 @@
         <v>4</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="12"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="12"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
@@ -3642,7 +3648,9 @@
         <v>138</v>
       </c>
       <c r="P82" s="2"/>
-      <c r="Q82" s="12"/>
+      <c r="Q82" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
@@ -3657,11 +3665,11 @@
       <c r="D83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="12"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
@@ -3675,7 +3683,9 @@
         <v>138</v>
       </c>
       <c r="P83" s="2"/>
-      <c r="Q83" s="12"/>
+      <c r="Q83" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
@@ -3688,9 +3698,9 @@
         <v>4</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="12"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="12"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
@@ -3704,7 +3714,9 @@
         <v>138</v>
       </c>
       <c r="P84" s="2"/>
-      <c r="Q84" s="12"/>
+      <c r="Q84" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -3717,9 +3729,9 @@
         <v>4</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="12"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="12"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
@@ -3733,7 +3745,9 @@
         <v>138</v>
       </c>
       <c r="P85" s="2"/>
-      <c r="Q85" s="12"/>
+      <c r="Q85" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
@@ -3748,11 +3762,9 @@
       <c r="D86" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="E86" s="12"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
@@ -3766,8 +3778,8 @@
         <v>138</v>
       </c>
       <c r="P86" s="2"/>
-      <c r="Q86" s="6" t="s">
-        <v>130</v>
+      <c r="Q86" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -3785,7 +3797,7 @@
         <v>122</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H87" s="2"/>
@@ -4770,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65744B0E-0867-4CCD-B206-4ABD18F2D59F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook-data-science-artificial-intelligence-startup-campus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Web\Python\Normal\logbook-data-science-artificial-intelligence-startup-campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C8AB3-64BA-4881-B2C0-4B5DA9D8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAE3CB-5414-4172-8EE3-C01FC4152651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Building Performing Team: Final Project Update &amp; Progress</t>
   </si>
   <si>
-    <t>Monthly Reflection</t>
-  </si>
-  <si>
     <t>A Fun Session: Sharing &amp; Discussion Time</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Final Exam</t>
   </si>
   <si>
-    <t>Main Bareng Yuk!</t>
-  </si>
-  <si>
     <t>2.3 Feature Engineering &amp;&amp;&amp; 3.1 Introduction to Machine Learning &amp; 3.2 Unsupervised Learning - Clustering</t>
   </si>
   <si>
@@ -461,6 +455,12 @@
   </si>
   <si>
     <t>Studium Generale Data &amp; AI &amp;&amp;&amp; Studium Generale Development &amp;&amp;&amp; Studium Generale Career</t>
+  </si>
+  <si>
+    <t>The Great Escape: A Fun Filled Day at The Village</t>
+  </si>
+  <si>
+    <t>2nd Checking Point: Monthly Reflection</t>
   </si>
 </sst>
 </file>
@@ -902,11 +902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q86" sqref="Q86"/>
+      <selection pane="bottomRight" activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,49 +940,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1031,14 +1031,14 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1067,7 +1067,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1096,7 +1096,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1114,14 +1114,14 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1143,7 +1143,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1170,7 +1170,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1178,7 +1178,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1199,7 +1199,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1226,19 +1226,19 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
@@ -1265,15 +1265,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1296,15 +1296,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1329,17 +1329,17 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1364,22 +1364,22 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1397,10 +1397,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1426,15 +1426,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1463,15 +1463,15 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1494,15 +1494,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1529,15 +1529,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1560,20 +1560,20 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1593,20 +1593,20 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1626,22 +1626,22 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>7</v>
@@ -1667,22 +1667,22 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1702,22 +1702,22 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>8</v>
@@ -1741,22 +1741,22 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1776,20 +1776,20 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1809,20 +1809,20 @@
       <c r="F27" s="2"/>
       <c r="G27" s="9"/>
       <c r="H27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1842,15 +1842,15 @@
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
       <c r="H28" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1879,15 +1879,15 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1910,15 +1910,15 @@
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
       <c r="H30" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1945,15 +1945,15 @@
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
       <c r="H31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1976,10 +1976,10 @@
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
       <c r="H32" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2004,20 +2004,20 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2038,21 +2038,21 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q34" s="2"/>
     </row>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -2075,21 +2075,21 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q35" s="2"/>
     </row>
@@ -2108,15 +2108,15 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2143,15 +2143,15 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2174,10 +2174,10 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2203,22 +2203,22 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2236,17 +2236,17 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2271,21 +2271,21 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2308,17 +2308,17 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2345,17 +2345,17 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2378,14 +2378,14 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2408,22 +2408,22 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -2444,15 +2444,15 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -2477,15 +2477,15 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2508,15 +2508,15 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2539,15 +2539,15 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2570,15 +2570,15 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -2601,15 +2601,15 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -2632,15 +2632,15 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -2661,25 +2661,25 @@
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -2702,21 +2702,21 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q54" s="2"/>
     </row>
@@ -2735,15 +2735,15 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -2766,22 +2766,22 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -2801,17 +2801,17 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -2829,28 +2829,28 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q58" s="2"/>
     </row>
@@ -2865,34 +2865,34 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -2907,18 +2907,18 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -2927,7 +2927,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -2945,13 +2945,13 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="2"/>
@@ -2960,7 +2960,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2974,19 +2974,19 @@
         <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="2"/>
@@ -2995,7 +2995,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3013,24 +3013,24 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="2"/>
@@ -3061,7 +3061,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -3085,10 +3085,10 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3096,7 +3096,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -3116,10 +3116,10 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3127,7 +3127,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -3147,20 +3147,20 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -3191,7 +3191,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -3205,30 +3205,30 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -3248,20 +3248,20 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -3285,10 +3285,10 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -3296,7 +3296,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -3311,17 +3311,17 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -3329,7 +3329,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -3349,10 +3349,10 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -3360,7 +3360,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3382,10 +3382,10 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -3393,7 +3393,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -3413,10 +3413,10 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -3424,7 +3424,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -3444,10 +3444,10 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3455,7 +3455,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -3469,20 +3469,20 @@
         <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -3490,7 +3490,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -3510,10 +3510,10 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -3521,7 +3521,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -3550,7 +3550,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -3572,18 +3572,18 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -3603,20 +3603,20 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -3636,20 +3636,20 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -3663,28 +3663,28 @@
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -3704,18 +3704,18 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -3735,18 +3735,18 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -3760,26 +3760,26 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -3793,28 +3793,26 @@
         <v>4</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="E87" s="12"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -3829,16 +3827,16 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -3847,7 +3845,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -3861,21 +3859,21 @@
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -3884,7 +3882,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -3899,16 +3897,16 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -3917,7 +3915,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -3932,16 +3930,16 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -3950,7 +3948,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -3964,19 +3962,19 @@
         <v>4</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -3985,7 +3983,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -4000,16 +3998,16 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4018,7 +4016,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -4033,16 +4031,16 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4051,7 +4049,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -4065,21 +4063,21 @@
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4088,7 +4086,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -4103,16 +4101,16 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4121,7 +4119,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -4136,16 +4134,16 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4154,7 +4152,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -4168,19 +4166,19 @@
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4189,7 +4187,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -4204,16 +4202,16 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4222,7 +4220,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4242,10 +4240,10 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4253,7 +4251,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -4273,10 +4271,10 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -4284,7 +4282,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -4304,10 +4302,10 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -4315,7 +4313,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -4335,10 +4333,10 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -4346,7 +4344,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -4366,10 +4364,10 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -4377,7 +4375,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -4397,10 +4395,10 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -4408,7 +4406,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -4429,17 +4427,17 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -4460,17 +4458,17 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -4491,17 +4489,17 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -4522,17 +4520,17 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -4553,17 +4551,17 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -4584,17 +4582,17 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -4615,7 +4613,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -4623,7 +4621,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -4644,7 +4642,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -4652,7 +4650,7 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -4673,7 +4671,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -4681,7 +4679,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -4702,7 +4700,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -4710,7 +4708,7 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -4731,7 +4729,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -4739,7 +4737,7 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -4760,7 +4758,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -4768,7 +4766,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65744B0E-0867-4CCD-B206-4ABD18F2D59F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4799,22 +4797,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
@@ -4839,10 +4837,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -4862,7 +4860,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -4879,10 +4877,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
@@ -4899,10 +4897,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>0</v>
@@ -4919,10 +4917,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
@@ -4939,10 +4937,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11" t="b">
         <v>0</v>
@@ -4959,10 +4957,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -4979,10 +4977,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
@@ -4999,10 +4997,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -5019,10 +5017,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>0</v>
@@ -5039,10 +5037,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
@@ -5059,10 +5057,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>0</v>
@@ -5079,10 +5077,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>1</v>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Web\Python\Normal\logbook-data-science-artificial-intelligence-startup-campus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook-data-science-artificial-intelligence-startup-campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAE3CB-5414-4172-8EE3-C01FC4152651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E814EE0-F9A8-4714-BF98-9E8B9CC5DD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -903,10 +903,10 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q87" sqref="Q87"/>
+      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,7 +3793,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="12"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
         <v>102</v>
@@ -3811,9 +3811,7 @@
         <v>136</v>
       </c>
       <c r="P87" s="2"/>
-      <c r="Q87" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook-data-science-artificial-intelligence-startup-campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E814EE0-F9A8-4714-BF98-9E8B9CC5DD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA8E6B-B7D6-4ED4-AB40-61D27B0D27FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -388,9 +388,6 @@
     <t>Generative AI: LLM and LVM</t>
   </si>
   <si>
-    <t>Konsultasi Final Project Tambahan</t>
-  </si>
-  <si>
     <t>Quiz 10 Learning Video</t>
   </si>
   <si>
@@ -412,12 +409,6 @@
     <t>MSIB | Kenali Kebutuhan Diri Menjaga Pikiran dan Hati</t>
   </si>
   <si>
-    <t>Be a Better You</t>
-  </si>
-  <si>
-    <t>Final Chapter</t>
-  </si>
-  <si>
     <t>Communication for Collaboration: Your Guide for Better Connection</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
     <t>Onboarding &amp;&amp;&amp; Fun Day &amp;&amp;&amp; Graduation</t>
   </si>
   <si>
-    <t>Final Project Milestone &amp;&amp;&amp; Showcase Series</t>
-  </si>
-  <si>
     <t>Assignment Career &amp;&amp;&amp; Assignment Personal Branding</t>
   </si>
   <si>
@@ -461,6 +449,27 @@
   </si>
   <si>
     <t>2nd Checking Point: Monthly Reflection</t>
+  </si>
+  <si>
+    <t>Technical Meeting Selection to Showcase Data Science &amp; Artificial Intelligence Batch 6</t>
+  </si>
+  <si>
+    <t>Final Project Kick Off &amp;&amp;&amp; Final Project Milestone &amp;&amp;&amp; Showcase Series</t>
+  </si>
+  <si>
+    <t>Kick Off Final Project Data Science &amp; AI Batch 6</t>
+  </si>
+  <si>
+    <t>Student Journey MSIB 6 Be a Better You</t>
+  </si>
+  <si>
+    <t>Finalist Announcement</t>
+  </si>
+  <si>
+    <t>Diskusi mengenai KRS oleh Dosen Pembimbing Program MSIB Batch 6</t>
+  </si>
+  <si>
+    <t>Bimtek Penyusunan Laporan Akhir Mahasiswa MSIB Angkatan 6</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,12 +515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,14 +609,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -906,7 +908,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,8 +922,8 @@
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="166.140625" customWidth="1"/>
     <col min="9" max="9" width="59.5703125" customWidth="1"/>
-    <col min="10" max="10" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.140625" customWidth="1"/>
+    <col min="11" max="11" width="69" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="122.42578125" customWidth="1"/>
@@ -958,25 +960,25 @@
         <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>67</v>
@@ -1009,7 +1011,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1807,7 +1809,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1838,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -1873,12 +1875,12 @@
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -1906,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -1941,10 +1943,10 @@
       <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -1972,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2003,7 +2005,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>99</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2083,7 +2085,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2218,7 +2220,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2271,7 +2273,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
@@ -2418,7 +2420,7 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2667,7 +2669,7 @@
         <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
@@ -2781,7 +2783,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -2840,7 +2842,7 @@
         <v>42</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
@@ -2892,7 +2894,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -2927,7 +2929,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -2953,14 +2955,14 @@
       <c r="J61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K61" s="11"/>
+      <c r="K61" s="10"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2974,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2988,14 +2990,14 @@
       <c r="J62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K62" s="11"/>
+      <c r="K62" s="10"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3021,7 +3023,7 @@
       <c r="J63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K63" s="11"/>
+      <c r="K63" s="10"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
@@ -3030,7 +3032,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3054,14 +3056,14 @@
       <c r="J64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K64" s="11"/>
+      <c r="K64" s="10"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -3075,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
@@ -3088,7 +3090,7 @@
         <v>44</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3096,7 +3098,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -3119,7 +3121,7 @@
         <v>44</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3127,7 +3129,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -3150,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>70</v>
@@ -3160,7 +3162,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -3183,7 +3185,7 @@
         <v>44</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -3191,7 +3193,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -3205,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3218,7 +3220,7 @@
         <v>44</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -3228,7 +3230,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -3251,7 +3253,7 @@
         <v>45</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -3261,7 +3263,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -3275,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
@@ -3288,7 +3290,7 @@
         <v>45</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -3296,7 +3298,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -3321,7 +3323,7 @@
         <v>45</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -3329,7 +3331,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -3360,7 +3362,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -3374,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3393,7 +3395,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -3424,7 +3426,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -3455,7 +3457,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -3469,11 +3471,11 @@
         <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3490,7 +3492,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -3521,7 +3523,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -3549,9 +3551,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q79" s="2"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -3579,12 +3579,10 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -3612,12 +3610,10 @@
         <v>66</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -3641,16 +3637,14 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q82" s="2"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
@@ -3663,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
@@ -3680,12 +3674,10 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q83" s="2"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
@@ -3711,12 +3703,10 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P84" s="2"/>
-      <c r="Q84" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -3742,12 +3732,10 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P85" s="2"/>
-      <c r="Q85" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
@@ -3760,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3775,12 +3763,10 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P86" s="2"/>
-      <c r="Q86" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
@@ -3808,10 +3794,10 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P87" s="2"/>
-      <c r="Q87" s="12"/>
+      <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
@@ -3824,13 +3810,9 @@
         <v>4</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="E88" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
@@ -3842,9 +3824,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
-      <c r="Q88" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -3857,17 +3837,13 @@
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
@@ -3879,9 +3855,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
-      <c r="Q89" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q89" s="2"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
@@ -3894,13 +3868,9 @@
         <v>4</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
@@ -3912,9 +3882,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
-      <c r="Q90" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q90" s="2"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
@@ -3927,13 +3895,9 @@
         <v>4</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
@@ -3945,9 +3909,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
-      <c r="Q91" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
@@ -3960,13 +3922,11 @@
         <v>4</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H92" s="2"/>
@@ -3980,8 +3940,8 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
-      <c r="Q92" s="6" t="s">
-        <v>128</v>
+      <c r="Q92" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -3995,13 +3955,9 @@
         <v>4</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
@@ -4013,9 +3969,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
-      <c r="Q93" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q93" s="2"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
@@ -4028,9 +3982,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4038,7 +3990,7 @@
         <v>49</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4046,9 +3998,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
-      <c r="Q94" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -4061,11 +4011,9 @@
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
         <v>27</v>
       </c>
@@ -4083,9 +4031,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
-      <c r="Q95" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q95" s="2"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -4098,9 +4044,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4116,9 +4060,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
-      <c r="Q96" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q96" s="2"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -4131,9 +4073,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4143,15 +4083,15 @@
       <c r="J97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
-      <c r="Q97" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q97" s="2"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -4164,11 +4104,9 @@
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4184,9 +4122,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
-      <c r="Q98" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
@@ -4199,17 +4135,13 @@
         <v>4</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4217,8 +4149,8 @@
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
-      <c r="Q99" s="6" t="s">
-        <v>129</v>
+      <c r="Q99" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4237,9 +4169,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J100" s="2"/>
       <c r="K100" s="2" t="s">
         <v>52</v>
       </c>
@@ -4248,9 +4178,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
-      <c r="Q100" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q100" s="2"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -4268,9 +4196,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
         <v>52</v>
       </c>
@@ -4279,9 +4205,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
-      <c r="Q101" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q101" s="2"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -4300,7 +4224,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>52</v>
@@ -4310,9 +4234,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
-      <c r="Q102" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q102" s="2"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -4330,9 +4252,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J103" s="2"/>
       <c r="K103" s="2" t="s">
         <v>52</v>
       </c>
@@ -4341,9 +4261,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
-      <c r="Q103" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q103" s="2"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -4361,9 +4279,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J104" s="2"/>
       <c r="K104" s="2" t="s">
         <v>52</v>
       </c>
@@ -4372,9 +4288,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q104" s="2"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -4393,7 +4307,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>52</v>
@@ -4403,9 +4317,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
-      <c r="Q105" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q105" s="2"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -4424,19 +4336,15 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="6" t="s">
-        <v>134</v>
+      <c r="K106" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L106" s="2"/>
-      <c r="M106" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
-      <c r="Q106" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q106" s="2"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -4455,19 +4363,15 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="6" t="s">
-        <v>134</v>
+      <c r="K107" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L107" s="2"/>
-      <c r="M107" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
-      <c r="Q107" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -4486,19 +4390,15 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="6" t="s">
-        <v>134</v>
+      <c r="K108" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L108" s="2"/>
-      <c r="M108" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
-      <c r="Q108" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -4517,8 +4417,8 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="6" t="s">
-        <v>134</v>
+      <c r="K109" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
@@ -4527,9 +4427,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
-      <c r="Q109" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
@@ -4548,19 +4446,15 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="6" t="s">
-        <v>134</v>
+      <c r="K110" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L110" s="2"/>
-      <c r="M110" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
-      <c r="Q110" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -4579,19 +4473,15 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="6" t="s">
-        <v>134</v>
+      <c r="K111" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L111" s="2"/>
-      <c r="M111" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
-      <c r="Q111" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q111" s="2"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
@@ -4611,16 +4501,14 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
-      <c r="Q112" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q112" s="2"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -4640,16 +4528,14 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
-      <c r="Q113" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q113" s="2"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
@@ -4669,16 +4555,14 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
-      <c r="Q114" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q114" s="2"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -4698,16 +4582,14 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
-      <c r="Q115" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q115" s="2"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
@@ -4727,16 +4609,14 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
-      <c r="Q116" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q116" s="2"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
@@ -4756,16 +4636,14 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
-      <c r="Q117" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q117" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4779,7 +4657,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,7 +4793,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>75</v>
@@ -4934,22 +4812,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="11" t="b">
+      <c r="C8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="b">
+      <c r="D8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4975,7 +4853,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>75</v>
@@ -4994,28 +4872,28 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="b">
+      <c r="C11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>74</v>
@@ -5035,7 +4913,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>75</v>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Projects\Python\logbook-data-science-artificial-intelligence-startup-campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA8E6B-B7D6-4ED4-AB40-61D27B0D27FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B14224-8C01-469B-BD72-46680A764A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Bimtek Penyusunan Laporan Akhir Mahasiswa MSIB Angkatan 6</t>
+  </si>
+  <si>
+    <t>Survei Akhir Kegiatan Program MSIB Angkatan 6 Tahun 2024 (Untuk Mahasiswa Studi Independen)</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -621,7 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +907,10 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +931,7 @@
     <col min="14" max="14" width="122.42578125" customWidth="1"/>
     <col min="15" max="15" width="81" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="94.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="103.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.85546875" customWidth="1"/>
     <col min="18" max="23" width="9" customWidth="1"/>
     <col min="24" max="24" width="9.140625" customWidth="1"/>
   </cols>
@@ -3998,7 +4000,9 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
+      <c r="Q94" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -4031,7 +4035,9 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
+      <c r="Q95" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -4060,7 +4066,9 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
+      <c r="Q96" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -4091,7 +4099,9 @@
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
+      <c r="Q97" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -4122,7 +4132,9 @@
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+      <c r="Q98" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
@@ -4178,7 +4190,9 @@
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
+      <c r="Q100" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -4205,7 +4219,9 @@
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
+      <c r="Q101" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
@@ -4234,7 +4250,9 @@
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
+      <c r="Q102" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -4261,7 +4279,9 @@
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+      <c r="Q103" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -4288,7 +4308,9 @@
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
+      <c r="Q104" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -4317,7 +4339,9 @@
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
+      <c r="Q105" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -4417,7 +4441,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="11" t="s">
+      <c r="K109" s="2" t="s">
         <v>131</v>
       </c>
       <c r="L109" s="2"/>
@@ -4643,7 +4667,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
-      <c r="Q117" s="11"/>
+      <c r="Q117" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
